--- a/biology/Biologie cellulaire et moléculaire/Ramucirumab/Ramucirumab.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ramucirumab/Ramucirumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ramucirumab est un anticorps monoclonal recombinant ciblant le récepteur 2 (VEGFR2 ou KDR) du facteur de croissance de l’endothélium vasculaire (VEGF) et en cours de test comme médicament anticancéreux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ramucirumab est un anticorps monoclonal recombinant ciblant le récepteur 2 (VEGFR2 ou KDR) du facteur de croissance de l’endothélium vasculaire (VEGF) et en cours de test comme médicament anticancéreux.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Évaluations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il prolonge la survie des patients porteurs d'un cancer de l'estomac avancé ou d'un cancer de la jonction gastro-oesphagienne[2].
-En seconde ligne et en combinaison avec le doxetaxel, il améliore la survie des patients ayant un cancer du poumon non-à petites cellules[3]. ou un cancer uothélial[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il prolonge la survie des patients porteurs d'un cancer de l'estomac avancé ou d'un cancer de la jonction gastro-oesphagienne.
+En seconde ligne et en combinaison avec le doxetaxel, il améliore la survie des patients ayant un cancer du poumon non-à petites cellules. ou un cancer uothélial.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypertension artérielle est l'effet secondaire le plus notable[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypertension artérielle est l'effet secondaire le plus notable.
 </t>
         </is>
       </c>
